--- a/patient_data/patient_89.xlsx
+++ b/patient_data/patient_89.xlsx
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -939,22 +939,22 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2144,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2236,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
